--- a/Spreadsheets/degree distribution.xlsx
+++ b/Spreadsheets/degree distribution.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codys\Documents\SIUE\Spring 2023\CS490\Marvel Project\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABA3CC0D-C781-4987-B5AC-964781505B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495424D3-DC2E-490B-A1DC-56BE45714ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="4080" yWindow="2760" windowWidth="20595" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="degree_export_2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1357,6 +1370,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17786259070557356"/>
+                  <c:y val="-0.26004677088319933"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>degree_export_2!$C$2:$C$59</c:f>
@@ -3056,15 +3119,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3091,16 +3154,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3426,11 +3489,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Spreadsheets/degree distribution.xlsx
+++ b/Spreadsheets/degree distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codys\Documents\SIUE\Spring 2023\CS490\Marvel Project\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495424D3-DC2E-490B-A1DC-56BE45714ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2486A9-C3DF-42B8-98FB-7E4AAE267A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="2760" windowWidth="20595" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="degree_export_2" sheetId="1" r:id="rId1"/>
@@ -3492,7 +3492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
